--- a/results/year_platform_02_all.xlsx
+++ b/results/year_platform_02_all.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>16505</v>
+        <v>52784</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8568</v>
+        <v>28258</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10428</v>
+        <v>35587</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16506</v>
+        <v>52786</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11924</v>
+        <v>38930</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9669</v>
+        <v>32154</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8569</v>
+        <v>28260</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6239</v>
+        <v>18425</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8570</v>
+        <v>28261</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13724</v>
+        <v>44470</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
